--- a/statii.xlsx
+++ b/statii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Luneta</t>
+          <t>Machetă Cetate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.068753</t>
+          <t>46.068950</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.570029</t>
+          <t>23.568187</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Foto cu cel mai vizionar din grupa privind prin luneta, in timp ce ceilalti membrii il scot in evidenta.</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dragostea</t>
+          <t>Catedrala Încoronării</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.069831</t>
+          <t>46.068493</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.570267</t>
+          <t>23.569296</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(pe strada pacii)Hint. Aproape de desavarsire</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -531,22 +531,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Girafa discreta</t>
+          <t>Luneta</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.069980</t>
+          <t>46.068753</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.570319</t>
+          <t>23.570029</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tema: animalul preferat al fiecarui membru din grupa</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Biblioteca Batthyaneum</t>
+          <t>Dragostea</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.070305</t>
+          <t>46.069831</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.570654</t>
+          <t>23.570267</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cartea preferata a fiecarui membru din grupa</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -591,20 +591,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Palatul Apor</t>
+          <t>Girafa discretă</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46.070078</t>
+          <t>46.069980</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.571951</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>23.570319</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,22 +621,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Iezuit si copil</t>
+          <t>Biblioteca Batthyaneum</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46.068756</t>
+          <t>46.070305</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.571571</t>
+          <t>23.570654</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tema (3 mere)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -647,22 +651,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Muzeul Unirii</t>
+          <t>Palatul Apor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46.068202</t>
+          <t>46.070078</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.571080</t>
+          <t>23.571951</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tema: cate chipuri cioplite in fata intrarii? Cati regi sunt amplasati in fata cladirii Muzeului (numele lor) Raspuns 9</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -677,22 +681,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sala Unirii</t>
+          <t>Iezuit și copil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46.068168</t>
+          <t>46.068756</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.571278</t>
+          <t>23.571571</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tema: ce vi se pare interesant la tabloul incoronarii?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -707,22 +711,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Statuia Mihai viteazul</t>
+          <t>Muzeul Unirii</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.067492</t>
+          <t>46.068202</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23.570963</t>
+          <t>23.571080</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tema: cate copite ridicate are calul? Ce reprezinta?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -737,22 +741,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Preot si copii</t>
+          <t>Sala Unirii</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.067870</t>
+          <t>46.068168</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23.569604</t>
+          <t>23.571278</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Temă: ce carte tine in mana preotul?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -767,22 +771,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Catedrala catolica</t>
+          <t>Statui</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.067661</t>
+          <t>46.068120</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.569563</t>
+          <t>23.571753</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tema: cum se numeste catedrala Romano-Catolica? Catedrala a fost cateva sute de ani si Protestanta. Ce denominatiune? Raspuns: Sfantul Mihail / Calvinista</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -797,22 +801,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Poarta 4</t>
+          <t>Făuritorii Marii Uniri</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>46.068009</t>
+          <t>46.067918</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.568866</t>
+          <t>23.571653</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tema cate candelabre?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -827,22 +831,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Catedrala Incoronarii</t>
+          <t>Monumentul Custozza</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>46.068493</t>
+          <t>46.068029</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.569296</t>
+          <t>23.572167</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tema: foto intre regina maria si regele Ferdinand I</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -857,22 +861,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Student si copii</t>
+          <t>Lapidarium</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>46.068589</t>
+          <t>46.068161</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.572669</t>
+          <t>23.572232</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tema. Pentru ce clasa e manualul din mana studentului?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -887,22 +891,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Monumentul Lossenau</t>
+          <t>Legionar</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>46.067979</t>
+          <t>46.068085</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.572715</t>
+          <t>23.572339</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tema: cine a fost Lossenau?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -917,22 +921,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Legionar</t>
+          <t>Monumentul Lossenau</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>46.068085</t>
+          <t>46.067979</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.572339</t>
+          <t>23.572715</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tema: din ce legiune era? XIII</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -947,20 +951,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lapidarium</t>
+          <t>Student și copii</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>46.068161</t>
+          <t>46.068589</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.572232</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>23.572669</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,20 +981,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Monumentul Custozza</t>
+          <t>Bătălie</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.068029</t>
+          <t>46.067334</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23.572167</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>23.572684</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -999,22 +1011,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Statui</t>
+          <t>Via principalis</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46.068120</t>
+          <t>46.067331</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.571753</t>
+          <t>23.573053</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tema: 2 Generali, cum se numea cel fara chipiu? Alexandru Averescu</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1041,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fauritorii marii uniri</t>
+          <t>Poarta 3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>46.067918</t>
+          <t>46.067050</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23.571653</t>
+          <t>23.574260</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tema: gasiti-l pe Vichentie. (Foto)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1059,22 +1071,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Piramida</t>
+          <t>Obelisc</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>46.067605</t>
+          <t>46.066918</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.572016</t>
+          <t>23.575537</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tema: sub ce stateau regele si regina cand a depus regele juramantul? (Baldachin)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1101,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vanzatoarea de flori</t>
+          <t>Macheta Cetății</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.067612</t>
+          <t>46.067096</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23.572046</t>
+          <t>23.575268</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ce vindea si cate fire? 5 trandafiri</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1119,22 +1131,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vanzatorii de oua</t>
+          <t>Poarta 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46.067611</t>
+          <t>46.067367</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.572285</t>
+          <t>23.575486</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Foto: stati la rand pt a cumpara oua, si incercati sa impreaionati pt a vi le vinde voua.</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1176,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Identificati un element apocaliptic (trambita)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1191,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>De vorba</t>
+          <t>Exerciții de dicție</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1194,7 +1206,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Identificati conversatia. (Poate, cat e ceasul?) Foto cu cel/cea dintre voi, care ar vorbi ai cu statuiile (in dialog cu cei doi)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1209,22 +1221,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Batalie</t>
+          <t>Vănzătorii de ouă</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>46.067334</t>
+          <t>46.067611</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23.572684</t>
+          <t>23.572285</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Intre cine e batalia?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1251,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Via principalis</t>
+          <t>Vânzătoarea de flori</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>46.067331</t>
+          <t>46.067612</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23.573053</t>
+          <t>23.572046</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ce rol avea via principalis? (Era drumul care lega porțile principale ale castrului, de sud și de nord.)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1269,22 +1281,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Poarta 3</t>
+          <t>Piramida</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>46.067050</t>
+          <t>46.067605</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23.574260</t>
+          <t>23.572016</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cine a fost incarcerat aici, si cat timp) Horea, 2 luni+</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1311,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Obelisc</t>
+          <t>Eleganță</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>46.066918</t>
+          <t>46.067567</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23.575537</t>
+          <t>23.571272</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trei lucruri interesante desoperite despre obelisc.</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1329,22 +1341,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Macheta Cetatii</t>
+          <t>Statuia Mihai Viteazul</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>46.067096</t>
+          <t>46.067492</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23.575268</t>
+          <t>23.570963</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cum se mai numea cladirea Muzeului? (Babilon) Cate porti are cetatea (6)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1371,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Poarta 2</t>
+          <t>Preot și copii</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>46.067367</t>
+          <t>46.067870</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23.575486</t>
+          <t>23.569604</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ce scop are barbacana? (Barbacana era traseul în pantă, cu o lungime de  130 de metri, ce avea drept scop îngreunarea accesului dușmanilor la poarta principală a fortificației)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1389,22 +1401,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Poarta monetariei</t>
+          <t>Catedrala catolică</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>46.066896</t>
+          <t>46.067661</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>23.573065</t>
+          <t>23.569563</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ce comemoreaza placa de bronz? (1900 de ani de la incheierea razboialelor daco-romane)</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1419,22 +1431,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Batran Rabdator</t>
+          <t>Poarta 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>46.067021</t>
+          <t>46.068009</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23.572877</t>
+          <t>23.568866</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Foto cu toti pe banca</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1449,22 +1461,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Macheta Cetate 2</t>
+          <t>Capsula timpului</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>46.068950</t>
+          <t>46.068475</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23.568187</t>
+          <t>23.567635</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cum se numeste cladirea la nr 14?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1479,22 +1491,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Capsula timpului?</t>
+          <t>Batrân Răbdător</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46.068475</t>
+          <t>46.067021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23.567635</t>
+          <t>23.572877</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pe ce data se va deschide capsula timpului?</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1521,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eleganta</t>
+          <t>Poarta Monetăriei</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>46.067567</t>
+          <t>46.066896</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>23.571272</t>
+          <t>23.573065</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Foto de grup cu cei doi.</t>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -1539,20 +1551,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Camera Cavalerilor</t>
+          <t>Caponiera</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46.066097</t>
+          <t>46.065959</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23.573670</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>23.571988</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1565,20 +1581,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tunelul spre tunuri</t>
+          <t>Bastionul Sașilor</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>46.065554</t>
+          <t>46.066097</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23.572775</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>23.573670</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1591,20 +1611,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Podul de lemn dinspre sala Armelor</t>
+          <t>Platforma de artilerie</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>46.065959</t>
+          <t>46.065554</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23.571988</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>23.572775</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1617,7 +1641,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Camera de Tortura</t>
+          <t>Camera de Tortură</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1630,7 +1654,71 @@
           <t>23.574550</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Punct de belvedere</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>46.0663126</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.5746749</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Celula lui Horea</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>46.0671348</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.5746026</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
